--- a/input/mappings/scaling/US_scaling_mapping.xlsx
+++ b/input/mappings/scaling/US_scaling_mapping.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="420" yWindow="460" windowWidth="11780" windowHeight="12460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="53">
   <si>
     <t>inv_sector</t>
   </si>
@@ -35,129 +35,48 @@
     <t>FUEL COMB. INDUSTRIAL</t>
   </si>
   <si>
-    <t>industry</t>
-  </si>
-  <si>
     <t>industry_comb</t>
   </si>
   <si>
     <t>OFF-HIGHWAY</t>
   </si>
   <si>
-    <t>industry_minerals</t>
-  </si>
-  <si>
-    <t>industry_agriculture</t>
-  </si>
-  <si>
     <t>FUEL COMB. ELEC. UTIL.</t>
   </si>
   <si>
-    <t>energytrans_electricity_gen</t>
-  </si>
-  <si>
     <t>HIGHWAY VEHICLES</t>
   </si>
   <si>
-    <t>transp_road</t>
-  </si>
-  <si>
     <t>FUEL COMB. OTHER</t>
   </si>
   <si>
-    <t>misc</t>
-  </si>
-  <si>
     <t>MISCELLANEOUS</t>
   </si>
   <si>
-    <t>process_Other</t>
-  </si>
-  <si>
     <t>OTHER INDUSTRIAL PROCESSES</t>
   </si>
   <si>
-    <t>energytrans_other</t>
-  </si>
-  <si>
     <t>PETROLEUM &amp; RELATED INDUSTRIES</t>
   </si>
   <si>
-    <t>oil</t>
-  </si>
-  <si>
-    <t>crude_oil_production</t>
-  </si>
-  <si>
-    <t>energytrans_petr_refin_Crude</t>
-  </si>
-  <si>
     <t>METALS PROCESSING</t>
   </si>
   <si>
-    <t>process_Smelting</t>
-  </si>
-  <si>
     <t>STORAGE &amp; TRANSPORT</t>
   </si>
   <si>
-    <t>transport</t>
-  </si>
-  <si>
-    <t>transp_domestic_air</t>
-  </si>
-  <si>
-    <t>transp_domestic ship</t>
-  </si>
-  <si>
-    <t>transp_rail</t>
-  </si>
-  <si>
-    <t>transp_international_ship</t>
-  </si>
-  <si>
-    <t>transp_international_air</t>
-  </si>
-  <si>
-    <t>transp_unspecified</t>
-  </si>
-  <si>
     <t>Wildfires</t>
   </si>
   <si>
     <t>CHEMICAL &amp; ALLIED PRODUCT MFG</t>
   </si>
   <si>
-    <t>coal_production</t>
-  </si>
-  <si>
     <t>SOLVENT UTILIZATION</t>
   </si>
   <si>
-    <t>natural_gas_production</t>
-  </si>
-  <si>
     <t>WASTE DISPOSAL &amp; RECYCLING</t>
   </si>
   <si>
-    <t>energytrans_heat_gen</t>
-  </si>
-  <si>
-    <t>energytrans_coke_ovens</t>
-  </si>
-  <si>
-    <t>rescom_buildings</t>
-  </si>
-  <si>
-    <t>process_Al</t>
-  </si>
-  <si>
-    <t>process_PulpPaper</t>
-  </si>
-  <si>
-    <t>process_SAcidProduction</t>
-  </si>
-  <si>
     <t>iso</t>
   </si>
   <si>
@@ -177,6 +96,90 @@
   </si>
   <si>
     <t>post_ext_year</t>
+  </si>
+  <si>
+    <t>1A1a_Electricity-public</t>
+  </si>
+  <si>
+    <t>1A3b_Road</t>
+  </si>
+  <si>
+    <t>1A2a_Ind-Comb-Iron-steel</t>
+  </si>
+  <si>
+    <t>1A2b_Ind-Comb-Non-ferrous-metals</t>
+  </si>
+  <si>
+    <t>1A2c_Ind-Comb-Chemicals</t>
+  </si>
+  <si>
+    <t>1A2d_Ind-Comb-Pulp-paper</t>
+  </si>
+  <si>
+    <t>1A2e_Ind-Comb-Food-tobacco</t>
+  </si>
+  <si>
+    <t>1A2f_Ind-Comb-Non-metalic-minerals</t>
+  </si>
+  <si>
+    <t>1A2g_Ind-Comb-Construction</t>
+  </si>
+  <si>
+    <t>1A2g_Ind-Comb-transpequip</t>
+  </si>
+  <si>
+    <t>1A2g_Ind-Comb-machinery</t>
+  </si>
+  <si>
+    <t>1A2g_Ind-Comb-mining-quarying</t>
+  </si>
+  <si>
+    <t>1A2g_Ind-Comb-wood-products</t>
+  </si>
+  <si>
+    <t>1A2g_Ind-Comb-textile-leather</t>
+  </si>
+  <si>
+    <t>1A2g_Ind-Comb-other</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>5A_Solid-waste-disposal</t>
+  </si>
+  <si>
+    <t>5E_Other-waste-handling</t>
+  </si>
+  <si>
+    <t>5C_Waste-incineration</t>
+  </si>
+  <si>
+    <t>2C_Metal-production</t>
+  </si>
+  <si>
+    <t>1A1bc_Other-transformation</t>
+  </si>
+  <si>
+    <t>other_industrial_process</t>
+  </si>
+  <si>
+    <t>2B_Chemical-industry</t>
+  </si>
+  <si>
+    <t>solvents</t>
+  </si>
+  <si>
+    <t>2D3_Other-product-use</t>
+  </si>
+  <si>
+    <t>2D_Paint-application</t>
+  </si>
+  <si>
+    <t>2D_Degreasing-Cleaning</t>
+  </si>
+  <si>
+    <t>2D3_Chemical-product-use</t>
   </si>
 </sst>
 </file>
@@ -232,8 +235,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -241,9 +246,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -573,13 +580,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="28.83203125" customWidth="1"/>
+    <col min="2" max="2" width="33.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -599,218 +610,273 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" t="s">
-        <v>35</v>
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" t="s">
-        <v>37</v>
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
         <v>38</v>
       </c>
-      <c r="C22" t="s">
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="C23" t="s">
+    <row r="36" spans="2:3">
+      <c r="B36" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="C24" t="s">
+      <c r="C36" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="C25" t="s">
+    <row r="37" spans="2:3">
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="C26" t="s">
+    <row r="38" spans="2:3">
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="C27" t="s">
-        <v>44</v>
+    <row r="39" spans="2:3">
+      <c r="B39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -823,7 +889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -837,36 +903,36 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -895,30 +961,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/input/mappings/scaling/US_scaling_mapping.xlsx
+++ b/input/mappings/scaling/US_scaling_mapping.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="420" yWindow="460" windowWidth="11780" windowHeight="12460" tabRatio="500"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="64">
   <si>
     <t>inv_sector</t>
   </si>
@@ -35,9 +35,6 @@
     <t>FUEL COMB. INDUSTRIAL</t>
   </si>
   <si>
-    <t>industry_comb</t>
-  </si>
-  <si>
     <t>OFF-HIGHWAY</t>
   </si>
   <si>
@@ -158,15 +155,6 @@
     <t>2C_Metal-production</t>
   </si>
   <si>
-    <t>1A1bc_Other-transformation</t>
-  </si>
-  <si>
-    <t>other_industrial_process</t>
-  </si>
-  <si>
-    <t>2B_Chemical-industry</t>
-  </si>
-  <si>
     <t>solvents</t>
   </si>
   <si>
@@ -180,6 +168,51 @@
   </si>
   <si>
     <t>2D3_Chemical-product-use</t>
+  </si>
+  <si>
+    <t>off-highway</t>
+  </si>
+  <si>
+    <t>1A3c_Rail</t>
+  </si>
+  <si>
+    <t>1A3eii_Other-transp</t>
+  </si>
+  <si>
+    <t>1A4c_Agriculture-forestry-fishing</t>
+  </si>
+  <si>
+    <t>other-end-use-sectors</t>
+  </si>
+  <si>
+    <t>industry-comb</t>
+  </si>
+  <si>
+    <t>1A1a-Electricity-public</t>
+  </si>
+  <si>
+    <t>1A3b-Road</t>
+  </si>
+  <si>
+    <t>other-industrial-process</t>
+  </si>
+  <si>
+    <t>1A1bc-Other-transformation</t>
+  </si>
+  <si>
+    <t>2C-Metal-production</t>
+  </si>
+  <si>
+    <t>2B-Chemical-industry</t>
+  </si>
+  <si>
+    <t>1A4a_Commercial-institutional</t>
+  </si>
+  <si>
+    <t>1A4b_Residential</t>
+  </si>
+  <si>
+    <t>1A5_Other-unspecified</t>
   </si>
 </sst>
 </file>
@@ -235,8 +268,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -246,11 +295,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -580,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -608,155 +673,164 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="B23" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="B24" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="B25" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="B26" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="B27" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="B28" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="B29" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
         <v>33</v>
@@ -764,7 +838,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="B30" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="C30" t="s">
         <v>34</v>
@@ -772,7 +846,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="B31" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="C31" t="s">
         <v>35</v>
@@ -780,7 +854,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="B32" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="C32" t="s">
         <v>36</v>
@@ -788,7 +862,7 @@
     </row>
     <row r="33" spans="2:3">
       <c r="B33" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="C33" t="s">
         <v>37</v>
@@ -796,7 +870,7 @@
     </row>
     <row r="34" spans="2:3">
       <c r="B34" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="C34" t="s">
         <v>38</v>
@@ -804,15 +878,15 @@
     </row>
     <row r="35" spans="2:3">
       <c r="B35" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
         <v>41</v>
@@ -820,7 +894,7 @@
     </row>
     <row r="37" spans="2:3">
       <c r="B37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
         <v>42</v>
@@ -828,50 +902,98 @@
     </row>
     <row r="38" spans="2:3">
       <c r="B38" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" t="s">
         <v>48</v>
-      </c>
-      <c r="C41" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="2:3">
       <c r="B43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" t="s">
         <v>49</v>
+      </c>
+      <c r="C44" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -903,36 +1025,36 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
         <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -961,30 +1083,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
         <v>23</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/input/mappings/scaling/US_scaling_mapping.xlsx
+++ b/input/mappings/scaling/US_scaling_mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="460" windowWidth="11780" windowHeight="12460" tabRatio="500"/>
+    <workbookView xWindow="6640" yWindow="0" windowWidth="17140" windowHeight="14160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="85">
   <si>
     <t>inv_sector</t>
   </si>
@@ -197,9 +197,6 @@
     <t>other-industrial-process</t>
   </si>
   <si>
-    <t>1A1bc-Other-transformation</t>
-  </si>
-  <si>
     <t>2C-Metal-production</t>
   </si>
   <si>
@@ -213,6 +210,72 @@
   </si>
   <si>
     <t>1A5_Other-unspecified</t>
+  </si>
+  <si>
+    <t>1A1a_Electricity-autoproducer</t>
+  </si>
+  <si>
+    <t>1A1a_Heat-production</t>
+  </si>
+  <si>
+    <t>1A1bc_Other-transformation</t>
+  </si>
+  <si>
+    <t>1A3aii_Domestic-aviation</t>
+  </si>
+  <si>
+    <t>1B1_Fugitive-solid-fuels</t>
+  </si>
+  <si>
+    <t>1B2_Fugitive-petr-and-gas</t>
+  </si>
+  <si>
+    <t>1B2d_Fugitive-other-energy</t>
+  </si>
+  <si>
+    <t>2A1_Cement-production</t>
+  </si>
+  <si>
+    <t>2A2_Lime-production</t>
+  </si>
+  <si>
+    <t>2A6_Other-minerals</t>
+  </si>
+  <si>
+    <t>2B_Chemical-industry</t>
+  </si>
+  <si>
+    <t>2H_Pulp-and-paper-food-beverage-wood</t>
+  </si>
+  <si>
+    <t>2L_Other-process-emissions</t>
+  </si>
+  <si>
+    <t>3B_Manure-management</t>
+  </si>
+  <si>
+    <t>3D_Soil-emissions</t>
+  </si>
+  <si>
+    <t>3I_Agriculture-other</t>
+  </si>
+  <si>
+    <t>3D_Rice-Cultivation</t>
+  </si>
+  <si>
+    <t>3E_Enteric-fermentation</t>
+  </si>
+  <si>
+    <t>3F_Agricultural-residue-burning-on-fields</t>
+  </si>
+  <si>
+    <t>5D_Wastewater-handling</t>
+  </si>
+  <si>
+    <t>Miscellaneous</t>
+  </si>
+  <si>
+    <t>general-fugitive-emissions</t>
   </si>
 </sst>
 </file>
@@ -268,7 +331,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -290,12 +353,91 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="99">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -306,6 +448,45 @@
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -316,6 +497,45 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -645,15 +865,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+      <selection activeCell="B64" sqref="B64:B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="28.83203125" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" customWidth="1"/>
     <col min="2" max="2" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -684,220 +904,281 @@
         <v>49</v>
       </c>
     </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
       </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
         <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
+    <row r="17" spans="2:6">
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
       <c r="B20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
       <c r="B21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
       <c r="B22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
       <c r="B23" t="s">
         <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
       <c r="B24" t="s">
         <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>34</v>
+      </c>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="2:6">
       <c r="B25" t="s">
         <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>35</v>
+      </c>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="2:6">
       <c r="B26" t="s">
         <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>36</v>
+      </c>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="2:6">
       <c r="B27" t="s">
         <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>37</v>
+      </c>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="2:6">
       <c r="B28" t="s">
         <v>54</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
       <c r="B30" t="s">
         <v>54</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
       <c r="B31" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
       <c r="B32" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C35" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="2:3">
@@ -905,7 +1186,7 @@
         <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="2:3">
@@ -913,31 +1194,31 @@
         <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C41" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="2:3">
@@ -945,7 +1226,7 @@
         <v>49</v>
       </c>
       <c r="C43" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="2:3">
@@ -953,23 +1234,23 @@
         <v>49</v>
       </c>
       <c r="C44" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="2:3">
       <c r="B45" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C45" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="2:3">
       <c r="B46" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="2:3">
@@ -977,23 +1258,143 @@
         <v>53</v>
       </c>
       <c r="C47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3">
-      <c r="B48" t="s">
-        <v>53</v>
-      </c>
-      <c r="C48" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="49" spans="2:3">
       <c r="B49" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="C49" t="s">
-        <v>63</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52" t="s">
+        <v>83</v>
+      </c>
+      <c r="C52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53" t="s">
+        <v>83</v>
+      </c>
+      <c r="C53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="B54" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="B55" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="B57" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3">
+      <c r="B58" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="B59" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3">
+      <c r="B60" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3">
+      <c r="B61" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3">
+      <c r="B62" t="s">
+        <v>57</v>
+      </c>
+      <c r="C62" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="B64" t="s">
+        <v>84</v>
+      </c>
+      <c r="C64" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="B65" t="s">
+        <v>84</v>
+      </c>
+      <c r="C65" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
+      <c r="B66" t="s">
+        <v>84</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3">
+      <c r="B67" t="s">
+        <v>84</v>
+      </c>
+      <c r="C67" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/input/mappings/scaling/US_scaling_mapping.xlsx
+++ b/input/mappings/scaling/US_scaling_mapping.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="6640" yWindow="0" windowWidth="17140" windowHeight="14160" tabRatio="500"/>
@@ -167,9 +167,6 @@
     <t>2D_Degreasing-Cleaning</t>
   </si>
   <si>
-    <t>2D3_Chemical-product-use</t>
-  </si>
-  <si>
     <t>off-highway</t>
   </si>
   <si>
@@ -276,6 +273,9 @@
   </si>
   <si>
     <t>general-fugitive-emissions</t>
+  </si>
+  <si>
+    <t>2D3_Chemical-products-manufacture-processing</t>
   </si>
 </sst>
 </file>
@@ -867,8 +867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64:B67"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -893,7 +893,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -901,7 +901,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -909,7 +909,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
@@ -920,7 +920,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
         <v>25</v>
@@ -931,7 +931,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -939,7 +939,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -947,7 +947,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -955,7 +955,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -963,7 +963,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
         <v>43</v>
@@ -974,7 +974,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -982,10 +982,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1011,7 +1011,7 @@
     </row>
     <row r="17" spans="2:6">
       <c r="B17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
         <v>26</v>
@@ -1019,7 +1019,7 @@
     </row>
     <row r="18" spans="2:6">
       <c r="B18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
         <v>27</v>
@@ -1027,7 +1027,7 @@
     </row>
     <row r="19" spans="2:6">
       <c r="B19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -1035,7 +1035,7 @@
     </row>
     <row r="20" spans="2:6">
       <c r="B20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="21" spans="2:6">
       <c r="B21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
         <v>30</v>
@@ -1051,7 +1051,7 @@
     </row>
     <row r="22" spans="2:6">
       <c r="B22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
         <v>31</v>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="23" spans="2:6">
       <c r="B23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
         <v>33</v>
@@ -1067,7 +1067,7 @@
     </row>
     <row r="24" spans="2:6">
       <c r="B24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
         <v>34</v>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="25" spans="2:6">
       <c r="B25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
         <v>35</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="26" spans="2:6">
       <c r="B26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
         <v>36</v>
@@ -1094,7 +1094,7 @@
     </row>
     <row r="27" spans="2:6">
       <c r="B27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
         <v>37</v>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="28" spans="2:6">
       <c r="B28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
         <v>38</v>
@@ -1111,18 +1111,18 @@
     </row>
     <row r="29" spans="2:6">
       <c r="B29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="2:6">
@@ -1146,7 +1146,7 @@
         <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="2:3">
@@ -1186,7 +1186,7 @@
         <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="2:3">
@@ -1199,7 +1199,7 @@
     </row>
     <row r="40" spans="2:3">
       <c r="B40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C40" t="s">
         <v>32</v>
@@ -1207,194 +1207,194 @@
     </row>
     <row r="41" spans="2:3">
       <c r="B41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" t="s">
         <v>49</v>
-      </c>
-      <c r="C41" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="2:3">
       <c r="B43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="2:3">
       <c r="B44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="2:3">
       <c r="B45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="2:3">
       <c r="B46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="2:3">
       <c r="B47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="2:3">
       <c r="B49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="2:3">
       <c r="B51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C51" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="2:3">
       <c r="B52" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C52" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="2:3">
       <c r="B53" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C53" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="2:3">
       <c r="B54" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C54" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="2:3">
       <c r="B55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" spans="2:3">
       <c r="B57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="2:3">
       <c r="B58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C58" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="2:3">
       <c r="B59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C59" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="2:3">
       <c r="B60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="2:3">
       <c r="B61" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C61" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="2:3">
       <c r="B62" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C62" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="2:3">
       <c r="B64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="2:3">
       <c r="B65" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C65" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="2:3">
       <c r="B66" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="2:3">
       <c r="B67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C67" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/input/mappings/scaling/US_scaling_mapping.xlsx
+++ b/input/mappings/scaling/US_scaling_mapping.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6640" yWindow="0" windowWidth="17140" windowHeight="14160" tabRatio="500"/>
+    <workbookView xWindow="8220" yWindow="0" windowWidth="17440" windowHeight="17500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="86">
   <si>
     <t>inv_sector</t>
   </si>
@@ -276,6 +276,9 @@
   </si>
   <si>
     <t>2D3_Chemical-products-manufacture-processing</t>
+  </si>
+  <si>
+    <t>Note: NEI trends "Miscellaneous" category includes wildfires and ag res burning. Data has been adjusted in inventory file so that this will only be used for NH3.</t>
   </si>
 </sst>
 </file>
@@ -331,8 +334,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="99">
+  <cellStyleXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -437,7 +444,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="99">
+  <cellStyles count="103">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -487,6 +494,8 @@
     <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -536,6 +545,8 @@
     <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -867,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1230,9 +1241,6 @@
       </c>
     </row>
     <row r="44" spans="2:3">
-      <c r="B44" t="s">
-        <v>48</v>
-      </c>
       <c r="C44" t="s">
         <v>65</v>
       </c>
@@ -1261,15 +1269,18 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="2:3">
+    <row r="49" spans="2:6">
       <c r="B49" t="s">
         <v>82</v>
       </c>
       <c r="C49" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="50" spans="2:3">
+      <c r="F49" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6">
       <c r="B50" t="s">
         <v>82</v>
       </c>
@@ -1277,7 +1288,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="2:3">
+    <row r="51" spans="2:6">
       <c r="B51" t="s">
         <v>82</v>
       </c>
@@ -1285,7 +1296,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="2:3">
+    <row r="52" spans="2:6">
       <c r="B52" t="s">
         <v>82</v>
       </c>
@@ -1293,7 +1304,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="53" spans="2:3">
+    <row r="53" spans="2:6">
       <c r="B53" t="s">
         <v>82</v>
       </c>
@@ -1301,7 +1312,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="2:3">
+    <row r="54" spans="2:6">
       <c r="B54" t="s">
         <v>82</v>
       </c>
@@ -1309,7 +1320,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="2:3">
+    <row r="55" spans="2:6">
       <c r="B55" t="s">
         <v>82</v>
       </c>
@@ -1317,7 +1328,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="57" spans="2:3">
+    <row r="57" spans="2:6">
       <c r="B57" t="s">
         <v>56</v>
       </c>
@@ -1325,7 +1336,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="2:3">
+    <row r="58" spans="2:6">
       <c r="B58" t="s">
         <v>56</v>
       </c>
@@ -1333,7 +1344,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="2:3">
+    <row r="59" spans="2:6">
       <c r="B59" t="s">
         <v>56</v>
       </c>
@@ -1341,7 +1352,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="2:3">
+    <row r="60" spans="2:6">
       <c r="B60" t="s">
         <v>56</v>
       </c>
@@ -1349,7 +1360,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="2:3">
+    <row r="61" spans="2:6">
       <c r="B61" t="s">
         <v>56</v>
       </c>
@@ -1357,7 +1368,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="2:3">
+    <row r="62" spans="2:6">
       <c r="B62" t="s">
         <v>56</v>
       </c>
@@ -1365,7 +1376,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="2:3">
+    <row r="64" spans="2:6">
       <c r="B64" t="s">
         <v>83</v>
       </c>
